--- a/ERManagement.WEBUI/Uploads/EmployeeDocument/STAFF DATA FEBDOL2.xlsx
+++ b/ERManagement.WEBUI/Uploads/EmployeeDocument/STAFF DATA FEBDOL2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FECSPRINCE\source\repos\HR Management\Extra Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62ACC78-1D2C-42E7-AA81-9D738FDDC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA689DCD-1F7C-4C47-ADA6-2D5BCC2A0A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>S/N</t>
   </si>
@@ -61,12 +61,6 @@
     <t>TAX</t>
   </si>
   <si>
-    <t>GROSS SALARY</t>
-  </si>
-  <si>
-    <t>NET SALARY</t>
-  </si>
-  <si>
     <t>SHEHU SADDAM HUSSAINI</t>
   </si>
   <si>
@@ -97,22 +91,25 @@
     <t>FALEKULO ISAAC TOPE</t>
   </si>
   <si>
-    <t>9/23/2019</t>
-  </si>
-  <si>
-    <t>9/23/2020</t>
-  </si>
-  <si>
-    <t>9/23/2021</t>
-  </si>
-  <si>
-    <t>9/23/2022</t>
-  </si>
-  <si>
-    <t>9/23/2023</t>
-  </si>
-  <si>
-    <t>9/23/2024</t>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>shehu@mail.com</t>
+  </si>
+  <si>
+    <t>ipadeola@mail.com</t>
+  </si>
+  <si>
+    <t>raheem@mail.com</t>
+  </si>
+  <si>
+    <t>falekulo@mail.com</t>
+  </si>
+  <si>
+    <t>sylvanus@mail.com</t>
+  </si>
+  <si>
+    <t>awodele@mail.com</t>
   </si>
 </sst>
 </file>
@@ -120,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$₦-46A]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$₦-46A]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -151,6 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,19 +174,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,8 +197,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -530,32 +538,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,348 +572,340 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33545</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
-        <v>33545</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>13000</v>
       </c>
-      <c r="J3" s="3">
-        <v>6000</v>
-      </c>
       <c r="K3" s="3">
         <v>6000</v>
       </c>
       <c r="L3" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M3" s="3">
         <v>27000</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>1900</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>3.5</v>
       </c>
-      <c r="O3" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P3" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>28665</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
-        <v>28665</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>13000</v>
       </c>
-      <c r="J4" s="3">
-        <v>6000</v>
-      </c>
       <c r="K4" s="3">
         <v>6000</v>
       </c>
       <c r="L4" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M4" s="3">
         <v>27000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>1900</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>3.5</v>
       </c>
-      <c r="O4" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P4" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8">
+        <v>31375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8">
-        <v>31375</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>13000</v>
       </c>
-      <c r="J5" s="3">
-        <v>6000</v>
-      </c>
       <c r="K5" s="3">
         <v>6000</v>
       </c>
       <c r="L5" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M5" s="3">
         <v>27000</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>1900</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>3.5</v>
       </c>
-      <c r="O5" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P5" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8">
         <v>29322</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3">
         <v>13000</v>
       </c>
-      <c r="J6" s="3">
-        <v>6000</v>
-      </c>
       <c r="K6" s="3">
         <v>6000</v>
       </c>
       <c r="L6" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M6" s="3">
         <v>27000</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1900</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>3.5</v>
       </c>
-      <c r="O6" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P6" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
         <v>25945</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3">
         <v>13000</v>
       </c>
-      <c r="J7" s="3">
-        <v>6000</v>
-      </c>
       <c r="K7" s="3">
         <v>6000</v>
       </c>
       <c r="L7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M7" s="3">
         <v>27000</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>1900</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>3.5</v>
       </c>
-      <c r="O7" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P7" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8">
+        <v>34813</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43731</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8">
-        <v>34813</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13000</v>
       </c>
-      <c r="J8" s="3">
-        <v>6000</v>
-      </c>
       <c r="K8" s="3">
         <v>6000</v>
       </c>
       <c r="L8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M8" s="3">
         <v>27000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>3.5</v>
       </c>
-      <c r="O8" s="3">
-        <v>52000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F16" s="8"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{575B3896-2A4B-45C0-9796-4E4DCB5D06F1}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{6CE1E967-D5EE-4EE0-8948-82E4344DADBD}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{865E275F-3F9C-40FF-B0B6-338AD52881E3}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{AFC256D2-2434-4FFA-A8DA-620EEC99A8A4}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{9955DF66-1BD8-41FF-9AFF-D8ED00B27BDE}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{3F2D85D6-FC56-4B60-89E6-141014CE7B1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>